--- a/4년제일반대학교_등록금_좌표.xlsx
+++ b/4년제일반대학교_등록금_좌표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education_2\MyPython4\streamlit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education_2\MyPython4\streamlit\unimap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B9DD42-B616-4F32-8260-BAE85F43067F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802E3003-D20A-4E38-9A07-4B05105E09FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5475" windowWidth="25440" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2110,18 +2110,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>폐교걱정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>경쟁없음</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>경쟁미약</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>F</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2147,6 +2135,18 @@
   </si>
   <si>
     <t>S</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2609,8 +2609,8 @@
   </sheetPr>
   <dimension ref="A1:H182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="G184" sqref="G184"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2671,7 +2671,7 @@
         <v>7581232</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>692</v>
@@ -2697,7 +2697,7 @@
         <v>7251423</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="H3" t="s">
         <v>689</v>
@@ -2723,7 +2723,7 @@
         <v>7114508</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="H4" t="s">
         <v>690</v>
@@ -2749,7 +2749,7 @@
         <v>7220827</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="H5" t="s">
         <v>688</v>
@@ -2775,7 +2775,7 @@
         <v>5837838</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="H6" t="s">
         <v>687</v>
@@ -2801,7 +2801,7 @@
         <v>8306676</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="H7" t="s">
         <v>686</v>
@@ -2827,7 +2827,7 @@
         <v>5889400</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="H8" t="s">
         <v>685</v>
@@ -2853,7 +2853,7 @@
         <v>6833450</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="H9" t="s">
         <v>684</v>
@@ -2879,7 +2879,7 @@
         <v>6833450</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="H10" t="s">
         <v>684</v>
@@ -2905,7 +2905,7 @@
         <v>7714151</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="H11" t="s">
         <v>683</v>
@@ -2931,7 +2931,7 @@
         <v>7376019</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="H12" t="s">
         <v>682</v>
@@ -2957,7 +2957,7 @@
         <v>6545358</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="H13" t="s">
         <v>681</v>
@@ -2983,7 +2983,7 @@
         <v>7233405</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="H14" t="s">
         <v>680</v>
@@ -3009,7 +3009,7 @@
         <v>7058139</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="H15" t="s">
         <v>679</v>
@@ -3035,7 +3035,7 @@
         <v>7090896</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="H16" t="s">
         <v>678</v>
@@ -3061,7 +3061,7 @@
         <v>6665781</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="H17" t="s">
         <v>677</v>
@@ -3087,7 +3087,7 @@
         <v>7335519</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="H18" t="s">
         <v>676</v>
@@ -3113,7 +3113,7 @@
         <v>8280374</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="H19" t="s">
         <v>675</v>
@@ -3139,7 +3139,7 @@
         <v>6952473</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="H20" t="s">
         <v>674</v>
@@ -3165,7 +3165,7 @@
         <v>7185831</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="H21" t="s">
         <v>673</v>
@@ -3191,7 +3191,7 @@
         <v>6418056</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="H22" t="s">
         <v>672</v>
@@ -3217,7 +3217,7 @@
         <v>6790844</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="H23" t="s">
         <v>671</v>
@@ -3243,7 +3243,7 @@
         <v>6598000</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="H24" t="s">
         <v>670</v>
@@ -3269,7 +3269,7 @@
         <v>7245284</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="H25" t="s">
         <v>669</v>
@@ -3295,7 +3295,7 @@
         <v>7246231</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="H26" t="s">
         <v>668</v>
@@ -3321,7 +3321,7 @@
         <v>7315198</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="H27" t="s">
         <v>667</v>
@@ -3347,7 +3347,7 @@
         <v>7157954</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="H28" t="s">
         <v>666</v>
@@ -3373,7 +3373,7 @@
         <v>7970722</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="H29" t="s">
         <v>665</v>
@@ -3399,7 +3399,7 @@
         <v>7257370</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="H30" t="s">
         <v>664</v>
@@ -3425,7 +3425,7 @@
         <v>7270124</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="H31" t="s">
         <v>663</v>
@@ -3451,7 +3451,7 @@
         <v>6922821</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="H32" t="s">
         <v>662</v>
@@ -3477,7 +3477,7 @@
         <v>6654016</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="H33" t="s">
         <v>661</v>
@@ -3503,7 +3503,7 @@
         <v>6907327</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="H34" t="s">
         <v>660</v>
@@ -3529,7 +3529,7 @@
         <v>6850820</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="H35" t="s">
         <v>659</v>
@@ -3555,7 +3555,7 @@
         <v>6280817</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="H36" t="s">
         <v>658</v>
@@ -3581,7 +3581,7 @@
         <v>6771033</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="H37" t="s">
         <v>657</v>
@@ -3607,7 +3607,7 @@
         <v>6729592</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="H38" t="s">
         <v>656</v>
@@ -3633,7 +3633,7 @@
         <v>6535666</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="H39" t="s">
         <v>655</v>
@@ -3659,7 +3659,7 @@
         <v>6311353</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="H40" t="s">
         <v>654</v>
@@ -3685,7 +3685,7 @@
         <v>6591901</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="H41" t="s">
         <v>653</v>
@@ -3711,7 +3711,7 @@
         <v>6584458</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="H42" t="s">
         <v>652</v>
@@ -3737,7 +3737,7 @@
         <v>6733888</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="H43" t="s">
         <v>651</v>
@@ -3763,7 +3763,7 @@
         <v>6937845</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="H44" t="s">
         <v>650</v>
@@ -3789,7 +3789,7 @@
         <v>7021326</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="H45" t="s">
         <v>649</v>
@@ -3815,7 +3815,7 @@
         <v>6580114</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="H46" t="s">
         <v>648</v>
@@ -3841,7 +3841,7 @@
         <v>7468537</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H47" t="s">
         <v>647</v>
@@ -3867,7 +3867,7 @@
         <v>6470097</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H48" t="s">
         <v>646</v>
@@ -3893,7 +3893,7 @@
         <v>6979611</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H49" t="s">
         <v>645</v>
@@ -3919,7 +3919,7 @@
         <v>6334500</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H50" t="s">
         <v>644</v>
@@ -3945,7 +3945,7 @@
         <v>7610778</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H51" t="s">
         <v>643</v>
@@ -3971,7 +3971,7 @@
         <v>6568264</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H52" t="s">
         <v>642</v>
@@ -3997,7 +3997,7 @@
         <v>7531198</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H53" t="s">
         <v>641</v>
@@ -4023,7 +4023,7 @@
         <v>6970514</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H54" t="s">
         <v>640</v>
@@ -4049,7 +4049,7 @@
         <v>7207401</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H55" t="s">
         <v>639</v>
@@ -4075,7 +4075,7 @@
         <v>7917546</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H56" t="s">
         <v>638</v>
@@ -4101,7 +4101,7 @@
         <v>7761284</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H57" t="s">
         <v>637</v>
@@ -4127,7 +4127,7 @@
         <v>7598499</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H58" t="s">
         <v>636</v>
@@ -4153,7 +4153,7 @@
         <v>7924049</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H59" t="s">
         <v>635</v>
@@ -4179,7 +4179,7 @@
         <v>7234996</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H60" t="s">
         <v>634</v>
@@ -4205,7 +4205,7 @@
         <v>7382967</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H61" t="s">
         <v>633</v>
@@ -4231,7 +4231,7 @@
         <v>7282058</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H62" t="s">
         <v>632</v>
@@ -4257,7 +4257,7 @@
         <v>7227702</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H63" t="s">
         <v>631</v>
@@ -4283,7 +4283,7 @@
         <v>7297250</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H64" t="s">
         <v>630</v>
@@ -4309,7 +4309,7 @@
         <v>7658347</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H65" t="s">
         <v>629</v>
@@ -4335,7 +4335,7 @@
         <v>6954290</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H66" t="s">
         <v>628</v>
@@ -4361,7 +4361,7 @@
         <v>6926388</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H67" t="s">
         <v>627</v>
@@ -4387,7 +4387,7 @@
         <v>7496520</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H68" t="s">
         <v>626</v>
@@ -4413,7 +4413,7 @@
         <v>7275811</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H69" t="s">
         <v>624</v>
@@ -4439,7 +4439,7 @@
         <v>7275811</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H70" t="s">
         <v>624</v>
@@ -4465,7 +4465,7 @@
         <v>6616457</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H71" t="s">
         <v>623</v>
@@ -4491,7 +4491,7 @@
         <v>6576506</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H72" t="s">
         <v>622</v>
@@ -4517,7 +4517,7 @@
         <v>8397128</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H73" t="s">
         <v>549</v>
@@ -4543,7 +4543,7 @@
         <v>7773461</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H74" t="s">
         <v>535</v>
@@ -4569,7 +4569,7 @@
         <v>8322290</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H75" t="s">
         <v>550</v>
@@ -4595,7 +4595,7 @@
         <v>8006759</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H76" t="s">
         <v>548</v>
@@ -4621,7 +4621,7 @@
         <v>7113430</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H77" t="s">
         <v>621</v>
@@ -4647,7 +4647,7 @@
         <v>7111110</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H78" t="s">
         <v>620</v>
@@ -4673,7 +4673,7 @@
         <v>6657667</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H79" t="s">
         <v>619</v>
@@ -4699,7 +4699,7 @@
         <v>7209330</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H80" t="s">
         <v>618</v>
@@ -4725,7 +4725,7 @@
         <v>7333644</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H81" t="s">
         <v>625</v>
@@ -4751,7 +4751,7 @@
         <v>7109852</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H82" t="s">
         <v>615</v>
@@ -4777,7 +4777,7 @@
         <v>7279405</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H83" t="s">
         <v>614</v>
@@ -4803,7 +4803,7 @@
         <v>7873075</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H84" t="s">
         <v>613</v>
@@ -4829,7 +4829,7 @@
         <v>7540804</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H85" t="s">
         <v>612</v>
@@ -4855,7 +4855,7 @@
         <v>7122951</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H86" t="s">
         <v>611</v>
@@ -4881,7 +4881,7 @@
         <v>3748928</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H87" t="s">
         <v>610</v>
@@ -4907,7 +4907,7 @@
         <v>3951411</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H88" t="s">
         <v>609</v>
@@ -4933,7 +4933,7 @@
         <v>3918285</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H89" t="s">
         <v>608</v>
@@ -4959,7 +4959,7 @@
         <v>3887172</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H90" t="s">
         <v>607</v>
@@ -4985,7 +4985,7 @@
         <v>3404767</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H91" t="s">
         <v>606</v>
@@ -5011,7 +5011,7 @@
         <v>4110184</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H92" s="8" t="s">
         <v>605</v>
@@ -5037,7 +5037,7 @@
         <v>3765638</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H93" t="s">
         <v>604</v>
@@ -5063,7 +5063,7 @@
         <v>4253274</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H94" t="s">
         <v>603</v>
@@ -5089,7 +5089,7 @@
         <v>4253274</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H95" t="s">
         <v>603</v>
@@ -5115,7 +5115,7 @@
         <v>3876810</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H96" t="s">
         <v>602</v>
@@ -5141,7 +5141,7 @@
         <v>3828317</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H97" t="s">
         <v>601</v>
@@ -5167,7 +5167,7 @@
         <v>4471034</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H98" t="s">
         <v>600</v>
@@ -5193,7 +5193,7 @@
         <v>3723612</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H99" t="s">
         <v>599</v>
@@ -5219,7 +5219,7 @@
         <v>7251329</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H100" t="s">
         <v>598</v>
@@ -5245,7 +5245,7 @@
         <v>7256019</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H101" t="s">
         <v>597</v>
@@ -5271,7 +5271,7 @@
         <v>9163632</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H102" t="s">
         <v>596</v>
@@ -5297,7 +5297,7 @@
         <v>9163632</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H103" t="s">
         <v>596</v>
@@ -5323,7 +5323,7 @@
         <v>7460014</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H104" t="s">
         <v>595</v>
@@ -5349,7 +5349,7 @@
         <v>7576066</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H105" t="s">
         <v>594</v>
@@ -5375,7 +5375,7 @@
         <v>7246246</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H106" t="s">
         <v>593</v>
@@ -5401,7 +5401,7 @@
         <v>4037828</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H107" t="s">
         <v>592</v>
@@ -5427,7 +5427,7 @@
         <v>7557824</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H108" t="s">
         <v>591</v>
@@ -5453,7 +5453,7 @@
         <v>7735746</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H109" t="s">
         <v>590</v>
@@ -5479,7 +5479,7 @@
         <v>7535146</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H110" t="s">
         <v>589</v>
@@ -5505,7 +5505,7 @@
         <v>7622776</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H111" t="s">
         <v>588</v>
@@ -5531,7 +5531,7 @@
         <v>10413967</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H112" t="s">
         <v>587</v>
@@ -5557,7 +5557,7 @@
         <v>10413967</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H113" t="s">
         <v>587</v>
@@ -5583,7 +5583,7 @@
         <v>10413967</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H114" t="s">
         <v>587</v>
@@ -5609,7 +5609,7 @@
         <v>7461513</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H115" t="s">
         <v>617</v>
@@ -5635,7 +5635,7 @@
         <v>7078778</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H116" t="s">
         <v>616</v>
@@ -5661,7 +5661,7 @@
         <v>9034616</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H117" t="s">
         <v>586</v>
@@ -5687,7 +5687,7 @@
         <v>7089425</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H118" t="s">
         <v>585</v>
@@ -5713,7 +5713,7 @@
         <v>6973645</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H119" t="s">
         <v>584</v>
@@ -5739,7 +5739,7 @@
         <v>9203802</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H120" t="s">
         <v>562</v>
@@ -5765,7 +5765,7 @@
         <v>8335434</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H121" t="s">
         <v>563</v>
@@ -5791,7 +5791,7 @@
         <v>8073411</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H122" t="s">
         <v>536</v>
@@ -5817,7 +5817,7 @@
         <v>4289666</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H123" s="8" t="s">
         <v>583</v>
@@ -5843,7 +5843,7 @@
         <v>4431726</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H124" s="8" t="s">
         <v>582</v>
@@ -5869,7 +5869,7 @@
         <v>4102933</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H125" t="s">
         <v>581</v>
@@ -5895,7 +5895,7 @@
         <v>4102933</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H126" t="s">
         <v>580</v>
@@ -5921,7 +5921,7 @@
         <v>3977333</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H127" t="s">
         <v>579</v>
@@ -5947,7 +5947,7 @@
         <v>4075879</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H128" t="s">
         <v>578</v>
@@ -5973,7 +5973,7 @@
         <v>4035531</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H129" t="s">
         <v>577</v>
@@ -5999,7 +5999,7 @@
         <v>4035531</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H130" t="s">
         <v>577</v>
@@ -6025,7 +6025,7 @@
         <v>7778890</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H131" t="s">
         <v>576</v>
@@ -6051,7 +6051,7 @@
         <v>7966242</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H132" t="s">
         <v>575</v>
@@ -6077,7 +6077,7 @@
         <v>7830281</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H133" t="s">
         <v>574</v>
@@ -6103,7 +6103,7 @@
         <v>7456251</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H134" t="s">
         <v>573</v>
@@ -6129,7 +6129,7 @@
         <v>7187575</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H135" t="s">
         <v>572</v>
@@ -6155,7 +6155,7 @@
         <v>7593346</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H136" t="s">
         <v>571</v>
@@ -6181,7 +6181,7 @@
         <v>4632119</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H137" t="s">
         <v>570</v>
@@ -6207,7 +6207,7 @@
         <v>7071832</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H138" s="8" t="s">
         <v>569</v>
@@ -6233,7 +6233,7 @@
         <v>7071832</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H139" t="s">
         <v>568</v>
@@ -6259,7 +6259,7 @@
         <v>7071832</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H140" t="s">
         <v>568</v>
@@ -6285,7 +6285,7 @@
         <v>4364968</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H141" t="s">
         <v>567</v>
@@ -6311,7 +6311,7 @@
         <v>4167688</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H142" t="s">
         <v>566</v>
@@ -6337,7 +6337,7 @@
         <v>7935790</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H143" t="s">
         <v>531</v>
@@ -6363,7 +6363,7 @@
         <v>7369170</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H144" t="s">
         <v>530</v>
@@ -6389,7 +6389,7 @@
         <v>8330044</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H145" s="8" t="s">
         <v>529</v>
@@ -6415,7 +6415,7 @@
         <v>8556877</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H146" t="s">
         <v>532</v>
@@ -6441,7 +6441,7 @@
         <v>7885046</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H147" t="s">
         <v>533</v>
@@ -6467,7 +6467,7 @@
         <v>9157983</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H148" t="s">
         <v>534</v>
@@ -6493,7 +6493,7 @@
         <v>9157983</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H149" t="s">
         <v>534</v>
@@ -6519,7 +6519,7 @@
         <v>7773461</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H150" s="8" t="s">
         <v>537</v>
@@ -6545,7 +6545,7 @@
         <v>8073411</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H151" t="s">
         <v>536</v>
@@ -6571,7 +6571,7 @@
         <v>8510869</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H152" t="s">
         <v>538</v>
@@ -6597,7 +6597,7 @@
         <v>4464815</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="H153" t="s">
         <v>539</v>
@@ -6623,7 +6623,7 @@
         <v>4499843</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="H154" t="s">
         <v>540</v>
@@ -6649,7 +6649,7 @@
         <v>7770597</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="H155" t="s">
         <v>541</v>
@@ -6675,7 +6675,7 @@
         <v>8312532</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="H156" t="s">
         <v>542</v>
@@ -6701,7 +6701,7 @@
         <v>7944926</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="H157" t="s">
         <v>543</v>
@@ -6727,7 +6727,7 @@
         <v>8137770</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="H158" t="s">
         <v>544</v>
@@ -6753,7 +6753,7 @@
         <v>7979923</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="H159" t="s">
         <v>545</v>
@@ -6779,7 +6779,7 @@
         <v>5465375</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="H160" t="s">
         <v>546</v>
@@ -6805,7 +6805,7 @@
         <v>7976046</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="H161" t="s">
         <v>547</v>
@@ -6831,7 +6831,7 @@
         <v>8006759</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="H162" t="s">
         <v>548</v>
@@ -6857,7 +6857,7 @@
         <v>8397128</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="H163" t="s">
         <v>549</v>
@@ -6883,7 +6883,7 @@
         <v>8322290</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="H164" t="s">
         <v>550</v>
@@ -6909,7 +6909,7 @@
         <v>7971001</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="H165" t="s">
         <v>551</v>
@@ -6935,7 +6935,7 @@
         <v>8742198</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="H166" t="s">
         <v>552</v>
@@ -6961,7 +6961,7 @@
         <v>7991355</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="H167" t="s">
         <v>553</v>
@@ -6987,7 +6987,7 @@
         <v>7184492</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="H168" t="s">
         <v>554</v>
@@ -7013,7 +7013,7 @@
         <v>2395890</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="H169" t="s">
         <v>555</v>
@@ -7039,7 +7039,7 @@
         <v>7999996</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="H170" t="s">
         <v>556</v>
@@ -7065,7 +7065,7 @@
         <v>8448562</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="H171" t="s">
         <v>557</v>
@@ -7091,7 +7091,7 @@
         <v>8556877</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="H172" t="s">
         <v>532</v>
@@ -7117,7 +7117,7 @@
         <v>9000000</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="H173" t="s">
         <v>558</v>
@@ -7143,7 +7143,7 @@
         <v>9000000</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="H174" t="s">
         <v>558</v>
@@ -7169,7 +7169,7 @@
         <v>2060000</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="H175" t="s">
         <v>561</v>
@@ -7195,7 +7195,7 @@
         <v>7280000</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="H176" t="s">
         <v>559</v>
@@ -7221,7 +7221,7 @@
         <v>6211367</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="H177" t="s">
         <v>560</v>
@@ -7247,7 +7247,7 @@
         <v>8335434</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="H178" s="8" t="s">
         <v>691</v>
@@ -7273,7 +7273,7 @@
         <v>9203802</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="H179" t="s">
         <v>562</v>
@@ -7299,7 +7299,7 @@
         <v>6866000</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="H180" t="s">
         <v>563</v>
@@ -7325,7 +7325,7 @@
         <v>5613500</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="H181" t="s">
         <v>564</v>
@@ -7351,7 +7351,7 @@
         <v>6011720</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="H182" t="s">
         <v>565</v>

--- a/4년제일반대학교_등록금_좌표.xlsx
+++ b/4년제일반대학교_등록금_좌표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education_2\MyPython4\streamlit\unimap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9798A7-0587-4E16-BD97-3B019C912074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55C993B-FDD0-432E-A96D-1A0A87EF1070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2535,7 +2535,7 @@
   <dimension ref="A1:H182"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="H185" sqref="H185"/>
+      <selection activeCell="G186" sqref="G186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7172,7 +7172,7 @@
         <v>8335434</v>
       </c>
       <c r="G178" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H178" s="8" t="s">
         <v>469</v>
@@ -7198,7 +7198,7 @@
         <v>9203802</v>
       </c>
       <c r="G179" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H179" t="s">
         <v>465</v>
@@ -7224,7 +7224,7 @@
         <v>6866000</v>
       </c>
       <c r="G180" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H180" t="s">
         <v>469</v>
@@ -7250,7 +7250,7 @@
         <v>5613500</v>
       </c>
       <c r="G181" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H181" t="s">
         <v>684</v>
@@ -7276,7 +7276,7 @@
         <v>6011720</v>
       </c>
       <c r="G182" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H182" t="s">
         <v>688</v>

--- a/4년제일반대학교_등록금_좌표.xlsx
+++ b/4년제일반대학교_등록금_좌표.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education_2\MyPython4\streamlit\unimap\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55C993B-FDD0-432E-A96D-1A0A87EF1070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -2092,24 +2086,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color rgb="FF9c5700"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2120,24 +2115,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2149,12 +2131,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFffeb9c"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFffff00"/>
       </patternFill>
     </fill>
   </fills>
@@ -2192,53 +2174,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="16">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2249,10 +2240,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2290,71 +2281,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2382,7 +2373,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -2405,11 +2396,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -2418,13 +2409,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2434,7 +2425,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2443,7 +2434,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2452,7 +2443,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2460,10 +2451,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -2528,29 +2519,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="G186" sqref="G186"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.4140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="78.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="11" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="38.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="7.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="24.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="78.7192857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2569,4721 +2558,4720 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6">
-        <v>127.64187083900001</v>
-      </c>
-      <c r="D2" s="6">
-        <v>37.128254341999998</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" s="7">
+        <v>127.641870839</v>
+      </c>
+      <c r="D2" s="7">
+        <v>37.128254342</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <v>7581232</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="9">
         <v>9</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>127.798102156</v>
       </c>
-      <c r="D3" s="6">
-        <v>36.198760495999998</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="7">
+        <v>36.198760496</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>7251423</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="9">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6">
-        <v>128.08103587100001</v>
-      </c>
-      <c r="D4" s="6">
-        <v>36.138876785999997</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C4" s="7">
+        <v>128.081035871</v>
+      </c>
+      <c r="D4" s="7">
+        <v>36.138876786</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>7114508</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="9">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6">
-        <v>129.16016214499999</v>
-      </c>
-      <c r="D5" s="6">
-        <v>35.829206431000003</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="C5" s="7">
+        <v>129.160162145</v>
+      </c>
+      <c r="D5" s="7">
+        <v>35.829206431</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <v>7220827</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="9">
         <v>9</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="6">
-        <v>126.57000730199999</v>
-      </c>
-      <c r="D6" s="6">
-        <v>33.442049406999999</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C6" s="7">
+        <v>126.570007302</v>
+      </c>
+      <c r="D6" s="7">
+        <v>33.442049407</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <v>5837838</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="9">
         <v>9</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="6">
-        <v>128.50854855700001</v>
-      </c>
-      <c r="D7" s="6">
-        <v>36.031719346999999</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C7" s="7">
+        <v>128.508548557</v>
+      </c>
+      <c r="D7" s="7">
+        <v>36.031719347</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <v>8306676</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="9">
         <v>9</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="6">
-        <v>129.18317735100001</v>
-      </c>
-      <c r="D8" s="6">
-        <v>35.838398380000001</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C8" s="7">
+        <v>129.183177351</v>
+      </c>
+      <c r="D8" s="7">
+        <v>35.83839838</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="8">
         <v>5889400</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="9">
         <v>9</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="7">
         <v>128.24754707</v>
       </c>
-      <c r="D9" s="6">
-        <v>35.714499889999999</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="7">
+        <v>35.71449989</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="8">
         <v>6833450</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="9">
         <v>8</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>128.873780474</v>
       </c>
-      <c r="D10" s="6">
-        <v>35.269383670000003</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" s="7">
+        <v>35.26938367</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="8">
         <v>6833450</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="9">
         <v>8</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="6">
-        <v>128.46807116716101</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="7">
+        <v>128.468071167161</v>
+      </c>
+      <c r="D11" s="7">
         <v>36.1716993571929</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="8">
         <v>7714151</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="9">
         <v>8</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="6">
-        <v>128.80119942499999</v>
-      </c>
-      <c r="D12" s="6">
-        <v>35.906890689999997</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="C12" s="7">
+        <v>128.801199425</v>
+      </c>
+      <c r="D12" s="7">
+        <v>35.90689069</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="8">
         <v>7376019</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="9">
         <v>8</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="7">
         <v>126.842258457</v>
       </c>
-      <c r="D13" s="6">
-        <v>35.206961909999997</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="7">
+        <v>35.20696191</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="8">
         <v>6545358</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="9">
         <v>8</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21">
       <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="6">
-        <v>128.53707345800001</v>
-      </c>
-      <c r="D14" s="6">
-        <v>36.881992459000003</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C14" s="7">
+        <v>128.537073458</v>
+      </c>
+      <c r="D14" s="7">
+        <v>36.881992459</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="8">
         <v>7233405</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="9">
         <v>8</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21">
       <c r="A15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="7">
         <v>129.101514124</v>
       </c>
-      <c r="D15" s="6">
-        <v>35.119880766999998</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" s="7">
+        <v>35.119880767</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="8">
         <v>7058139</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="9">
         <v>8</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="7">
         <v>126.483013883</v>
       </c>
-      <c r="D16" s="6">
-        <v>34.745591132999998</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" s="7">
+        <v>34.745591133</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="8">
         <v>7090896</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="9">
         <v>8</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21">
       <c r="A17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="7">
         <v>126.471949835</v>
       </c>
-      <c r="D17" s="6">
-        <v>34.977356864999997</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="7">
+        <v>34.977356865</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="8">
         <v>6665781</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="9">
         <v>8</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21">
       <c r="A18" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="7">
         <v>129.28417542</v>
       </c>
-      <c r="D18" s="6">
-        <v>36.011880601999998</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" s="7">
+        <v>36.011880602</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="8">
         <v>7335519</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="9">
         <v>8</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21">
       <c r="A19" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="7">
         <v>127.037058</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="7">
         <v>37.8466545</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="8">
         <v>8280374</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="9">
         <v>8</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21">
       <c r="A20" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="7">
         <v>126.866325171</v>
       </c>
-      <c r="D20" s="6">
-        <v>35.965678564000001</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D20" s="7">
+        <v>35.965678564</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="8">
         <v>6952473</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="9">
         <v>8</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21">
       <c r="A21" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="7">
         <v>128.876536977</v>
       </c>
-      <c r="D21" s="6">
-        <v>37.736598614999998</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D21" s="7">
+        <v>37.736598615</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="8">
         <v>7185831</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="9">
         <v>7</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="7">
         <v>127.344605551</v>
       </c>
-      <c r="D22" s="6">
-        <v>36.306880921999998</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22" s="7">
+        <v>36.306880922</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="8">
         <v>6418056</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="9">
         <v>7</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="7">
         <v>127.07052974</v>
       </c>
-      <c r="D23" s="6">
-        <v>37.809461734000003</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D23" s="7">
+        <v>37.809461734</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="8">
         <v>6790844</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="9">
         <v>7</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="7">
         <v>127.189707</v>
       </c>
-      <c r="D24" s="6">
-        <v>36.306804999000001</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24" s="7">
+        <v>36.306804999</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="8">
         <v>6598000</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="9">
         <v>7</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="7">
         <v>127.925831925</v>
       </c>
-      <c r="D25" s="6">
-        <v>37.371020479999999</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D25" s="7">
+        <v>37.37102048</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="8">
         <v>7245284</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="9">
         <v>7</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="7">
         <v>127.449918834</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="7">
         <v>36.193200116</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="8">
         <v>7246231</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="9">
         <v>7</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="7">
         <v>126.664269819</v>
       </c>
-      <c r="D27" s="6">
-        <v>36.582340393000003</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D27" s="7">
+        <v>36.582340393</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="8">
         <v>7315198</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="9">
         <v>7</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="7">
         <v>127.91097572</v>
       </c>
-      <c r="D28" s="6">
-        <v>37.302003392000003</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D28" s="7">
+        <v>37.302003392</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="8">
         <v>7157954</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="9">
         <v>7</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="7">
         <v>126.58375088</v>
       </c>
-      <c r="D29" s="6">
-        <v>36.689734051000002</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D29" s="7">
+        <v>36.689734051</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="8">
         <v>7970722</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="9">
         <v>7</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="6">
-        <v>128.81270672400001</v>
-      </c>
-      <c r="D30" s="6">
+      <c r="C30" s="7">
+        <v>128.812706724</v>
+      </c>
+      <c r="D30" s="7">
         <v>35.915472328</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="8">
         <v>7257370</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="9">
         <v>7</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="6">
-        <v>128.77463012499999</v>
-      </c>
-      <c r="D31" s="6">
-        <v>35.793630411000002</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="C31" s="7">
+        <v>128.774630125</v>
+      </c>
+      <c r="D31" s="7">
+        <v>35.793630411</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="8">
         <v>7270124</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="9">
         <v>7</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="7">
         <v>128.851091986</v>
       </c>
-      <c r="D32" s="6">
-        <v>35.899359744999998</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D32" s="7">
+        <v>35.899359745</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="8">
         <v>6922821</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="9">
         <v>7</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="6">
-        <v>129.06385576900001</v>
-      </c>
-      <c r="D33" s="6">
-        <v>35.078481572999998</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="C33" s="7">
+        <v>129.063855769</v>
+      </c>
+      <c r="D33" s="7">
+        <v>35.078481573</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="8">
         <v>6654016</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="9">
         <v>7</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="6">
-        <v>129.00750538299999</v>
-      </c>
-      <c r="D34" s="6">
-        <v>35.143502273999999</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="C34" s="7">
+        <v>129.007505383</v>
+      </c>
+      <c r="D34" s="7">
+        <v>35.143502274</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="8">
         <v>6907327</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="9">
         <v>7</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="6">
-        <v>129.09820130599999</v>
-      </c>
-      <c r="D35" s="6">
+      <c r="C35" s="7">
+        <v>129.098201306</v>
+      </c>
+      <c r="D35" s="7">
         <v>35.244994448</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="8">
         <v>6850820</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="9">
         <v>7</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="6">
-        <v>129.08103805299999</v>
-      </c>
-      <c r="D36" s="6">
-        <v>35.267118529999998</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="C36" s="7">
+        <v>129.081038053</v>
+      </c>
+      <c r="D36" s="7">
+        <v>35.26711853</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="8">
         <v>6280817</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="9">
         <v>7</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C37" s="6">
-        <v>128.99528462399999</v>
-      </c>
-      <c r="D37" s="6">
-        <v>35.169233349000002</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="C37" s="7">
+        <v>128.995284624</v>
+      </c>
+      <c r="D37" s="7">
+        <v>35.169233349</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="8">
         <v>6771033</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="9">
         <v>7</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="7">
         <v>129.156563705</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="7">
         <v>35.224240017</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="8">
         <v>6729592</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="9">
         <v>7</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C39" s="6">
-        <v>128.55406801500001</v>
-      </c>
-      <c r="D39" s="6">
-        <v>35.178387211999997</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="C39" s="7">
+        <v>128.554068015</v>
+      </c>
+      <c r="D39" s="7">
+        <v>35.178387212</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="8">
         <v>6535666</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="9">
         <v>7</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="7">
         <v>126.796408571</v>
       </c>
-      <c r="D40" s="6">
-        <v>35.163165835999997</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D40" s="7">
+        <v>35.163165836</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="8">
         <v>6311353</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="9">
         <v>7</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="7">
         <v>126.895317139</v>
       </c>
-      <c r="D41" s="6">
-        <v>35.106501661999999</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D41" s="7">
+        <v>35.106501662</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="8">
         <v>6591901</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="9">
         <v>7</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="7">
         <v>126.871403809</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="7">
         <v>35.113238306</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="8">
         <v>6584458</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="9">
         <v>7</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C43" s="6">
-        <v>126.71798511199999</v>
-      </c>
-      <c r="D43" s="6">
-        <v>35.049694973000001</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="C43" s="7">
+        <v>126.717985112</v>
+      </c>
+      <c r="D43" s="7">
+        <v>35.049694973</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="8">
         <v>6733888</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="9">
         <v>7</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="7">
         <v>127.065005894</v>
       </c>
-      <c r="D44" s="6">
-        <v>35.912982335000002</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D44" s="7">
+        <v>35.912982335</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="8">
         <v>6937845</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="9">
         <v>7</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="7">
         <v>127.091420003</v>
       </c>
-      <c r="D45" s="6">
-        <v>35.814430569000002</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="D45" s="7">
+        <v>35.814430569</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="8">
         <v>7021326</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="9">
         <v>7</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C46" s="6">
-        <v>126.76507024599999</v>
-      </c>
-      <c r="D46" s="6">
-        <v>35.149977925999998</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="C46" s="7">
+        <v>126.765070246</v>
+      </c>
+      <c r="D46" s="7">
+        <v>35.149977926</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="8">
         <v>6580114</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="9">
         <v>7</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="7">
         <v>126.91191888</v>
       </c>
-      <c r="D47" s="6">
-        <v>37.601192734000001</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D47" s="7">
+        <v>37.601192734</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="8">
         <v>7468537</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="9">
         <v>6</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C48" s="6">
-        <v>126.96221367299999</v>
-      </c>
-      <c r="D48" s="6">
-        <v>37.567418254000003</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="C48" s="7">
+        <v>126.962213673</v>
+      </c>
+      <c r="D48" s="7">
+        <v>37.567418254</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="8">
         <v>6470097</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="9">
         <v>6</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C49" s="6">
-        <v>126.85083001700001</v>
-      </c>
-      <c r="D49" s="6">
-        <v>37.496587519999999</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="C49" s="7">
+        <v>126.850830017</v>
+      </c>
+      <c r="D49" s="7">
+        <v>37.49658752</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="8">
         <v>6979611</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="9">
         <v>6</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="7">
         <v>127.113091802</v>
       </c>
-      <c r="D50" s="6">
-        <v>37.265110190000001</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D50" s="7">
+        <v>37.26511019</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="8">
         <v>6334500</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="9">
         <v>6</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="7">
         <v>127.129411073</v>
       </c>
-      <c r="D51" s="6">
-        <v>37.305362750999997</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="D51" s="7">
+        <v>37.305362751</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="8">
         <v>7610778</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="9">
         <v>6</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="7">
         <v>127.426964916</v>
       </c>
-      <c r="D52" s="6">
-        <v>37.510715683000001</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="D52" s="7">
+        <v>37.510715683</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="8">
         <v>6568264</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52" s="9">
         <v>6</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="6" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C53" s="6">
-        <v>127.24698497999999</v>
-      </c>
-      <c r="D53" s="6">
+      <c r="C53" s="7">
+        <v>127.24698498</v>
+      </c>
+      <c r="D53" s="7">
         <v>37.410393481</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="8">
         <v>7531198</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53" s="9">
         <v>6</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="7">
         <v>126.840606851</v>
       </c>
-      <c r="D54" s="6">
-        <v>37.202670212000001</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="D54" s="7">
+        <v>37.202670212</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="8">
         <v>6970514</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="9">
         <v>6</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C55" s="6">
-        <v>127.12021843799999</v>
-      </c>
-      <c r="D55" s="6">
-        <v>36.796842159000001</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="C55" s="7">
+        <v>127.120218438</v>
+      </c>
+      <c r="D55" s="7">
+        <v>36.796842159</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="8">
         <v>7207401</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="9">
         <v>6</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="7">
         <v>127.18252049</v>
       </c>
-      <c r="D56" s="6">
-        <v>36.838831536000001</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="D56" s="7">
+        <v>36.838831536</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="8">
         <v>7917546</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="9">
         <v>6</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="7">
         <v>127.073788337</v>
       </c>
-      <c r="D57" s="6">
-        <v>36.736281165999998</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="D57" s="7">
+        <v>36.736281166</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="8">
         <v>7761284</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="9">
         <v>6</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="7">
         <v>127.075826463</v>
       </c>
-      <c r="D58" s="6">
-        <v>36.800776061999997</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="D58" s="7">
+        <v>36.800776062</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="8">
         <v>7598499</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58" s="9">
         <v>6</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C59" s="6">
-        <v>127.14336520499999</v>
-      </c>
-      <c r="D59" s="6">
-        <v>36.909417808000001</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="C59" s="7">
+        <v>127.143365205</v>
+      </c>
+      <c r="D59" s="7">
+        <v>36.909417808</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="8">
         <v>7924049</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59" s="9">
         <v>6</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="7">
         <v>127.420768427</v>
       </c>
-      <c r="D60" s="6">
-        <v>36.355561844999997</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="D60" s="7">
+        <v>36.355561845</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="8">
         <v>7234996</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60" s="9">
         <v>6</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C61" s="6">
-        <v>127.46008009099999</v>
-      </c>
-      <c r="D61" s="6">
-        <v>36.335740205999997</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="C61" s="7">
+        <v>127.460080091</v>
+      </c>
+      <c r="D61" s="7">
+        <v>36.335740206</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="8">
         <v>7382967</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61" s="9">
         <v>6</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="7">
         <v>127.367025219</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="7">
         <v>36.319154292</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="8">
         <v>7282058</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G62" s="9">
         <v>6</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="7">
         <v>127.445660047</v>
       </c>
-      <c r="D63" s="6">
-        <v>36.338472193000001</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="D63" s="7">
+        <v>36.338472193</v>
+      </c>
+      <c r="E63" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="8">
         <v>7227702</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G63" s="9">
         <v>6</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C64" s="6">
-        <v>127.33787689499999</v>
-      </c>
-      <c r="D64" s="6">
-        <v>36.324386373999999</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="C64" s="7">
+        <v>127.337876895</v>
+      </c>
+      <c r="D64" s="7">
+        <v>36.324386374</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="8">
         <v>7297250</v>
       </c>
-      <c r="G64" s="5">
+      <c r="G64" s="9">
         <v>6</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="6" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="7">
         <v>127.492690635</v>
       </c>
-      <c r="D65" s="6">
-        <v>36.651739663999997</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="D65" s="7">
+        <v>36.651739664</v>
+      </c>
+      <c r="E65" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="8">
         <v>7658347</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G65" s="9">
         <v>6</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="6" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="7">
         <v>127.480043757</v>
       </c>
-      <c r="D66" s="6">
-        <v>36.625167775000001</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="D66" s="7">
+        <v>36.625167775</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="8">
         <v>6954290</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G66" s="9">
         <v>6</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="6" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C67" s="6">
-        <v>128.19372263599999</v>
-      </c>
-      <c r="D67" s="6">
-        <v>37.182708888999997</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="C67" s="7">
+        <v>128.193722636</v>
+      </c>
+      <c r="D67" s="7">
+        <v>37.182708889</v>
+      </c>
+      <c r="E67" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="8">
         <v>6926388</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G67" s="9">
         <v>6</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="6" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="7">
         <v>126.960788931</v>
       </c>
-      <c r="D68" s="6">
-        <v>35.968919147000001</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="D68" s="7">
+        <v>35.968919147</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="8">
         <v>7496520</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G68" s="9">
         <v>6</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="6" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C69" s="6">
-        <v>129.02047806300001</v>
-      </c>
-      <c r="D69" s="6">
-        <v>35.146452046999997</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="C69" s="7">
+        <v>129.020478063</v>
+      </c>
+      <c r="D69" s="7">
+        <v>35.146452047</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="8">
         <v>7275811</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G69" s="9">
         <v>6</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C70" s="6">
-        <v>128.90214131799999</v>
-      </c>
-      <c r="D70" s="6">
-        <v>35.247969458999997</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="C70" s="7">
+        <v>128.902141318</v>
+      </c>
+      <c r="D70" s="7">
+        <v>35.247969459</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="8">
         <v>7275811</v>
       </c>
-      <c r="G70" s="5">
+      <c r="G70" s="9">
         <v>6</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="7">
         <v>129.033354696</v>
       </c>
-      <c r="D71" s="6">
-        <v>35.139563238999997</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="D71" s="7">
+        <v>35.139563239</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="8">
         <v>6616457</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G71" s="9">
         <v>6</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="6" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="7">
         <v>129.09567461</v>
       </c>
-      <c r="D72" s="6">
-        <v>35.138000337999998</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="D72" s="7">
+        <v>35.138000338</v>
+      </c>
+      <c r="E72" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="8">
         <v>6576506</v>
       </c>
-      <c r="G72" s="5">
+      <c r="G72" s="9">
         <v>6</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="6" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="7">
         <v>127.289614501</v>
       </c>
-      <c r="D73" s="6">
-        <v>36.620258907999997</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="D73" s="7">
+        <v>36.620258908</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="8">
         <v>8397128</v>
       </c>
-      <c r="G73" s="5">
+      <c r="G73" s="9">
         <v>5</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="6" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74" s="7">
         <v>127.18199623</v>
       </c>
-      <c r="D74" s="6">
-        <v>36.833939110999999</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="D74" s="7">
+        <v>36.833939111</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="8">
         <v>7773461</v>
       </c>
-      <c r="G74" s="5">
+      <c r="G74" s="9">
         <v>5</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="6" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C75" s="6">
-        <v>127.90673446700001</v>
-      </c>
-      <c r="D75" s="6">
-        <v>36.948006755999998</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="C75" s="7">
+        <v>127.906734467</v>
+      </c>
+      <c r="D75" s="7">
+        <v>36.948006756</v>
+      </c>
+      <c r="E75" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="8">
         <v>8322290</v>
       </c>
-      <c r="G75" s="5">
+      <c r="G75" s="9">
         <v>5</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C76" s="6">
-        <v>129.19116080399999</v>
-      </c>
-      <c r="D76" s="6">
+      <c r="C76" s="7">
+        <v>129.191160804</v>
+      </c>
+      <c r="D76" s="7">
         <v>35.863337633</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="8">
         <v>8006759</v>
       </c>
-      <c r="G76" s="5">
+      <c r="G76" s="9">
         <v>5</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="6" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77" s="7">
         <v>126.854134653</v>
       </c>
-      <c r="D77" s="6">
-        <v>37.548669015999998</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="D77" s="7">
+        <v>37.548669016</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="8">
         <v>7113430</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G77" s="9">
         <v>5</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="6" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78" s="7">
         <v>127.063747236</v>
       </c>
-      <c r="D78" s="6">
-        <v>37.648946516999999</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="D78" s="7">
+        <v>37.648946517</v>
+      </c>
+      <c r="E78" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="8">
         <v>7111110</v>
       </c>
-      <c r="G78" s="5">
+      <c r="G78" s="9">
         <v>5</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="6" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C79" s="6">
-        <v>127.10489916100001</v>
-      </c>
-      <c r="D79" s="6">
-        <v>37.549338777999999</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="C79" s="7">
+        <v>127.104899161</v>
+      </c>
+      <c r="D79" s="7">
+        <v>37.549338778</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79" s="8">
         <v>6657667</v>
       </c>
-      <c r="G79" s="5">
+      <c r="G79" s="9">
         <v>5</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="6" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C80" s="7">
         <v>126.78999</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="7">
         <v>37.4783051</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80" s="8">
         <v>7209330</v>
       </c>
-      <c r="G80" s="5">
+      <c r="G80" s="9">
         <v>5</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="6" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81" s="7">
         <v>129.25836493</v>
       </c>
-      <c r="D81" s="6">
-        <v>35.546362268999999</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="D81" s="7">
+        <v>35.546362269</v>
+      </c>
+      <c r="E81" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81" s="8">
         <v>7333644</v>
       </c>
-      <c r="G81" s="5">
+      <c r="G81" s="9">
         <v>5</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" s="6" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82" s="7">
         <v>126.934704354</v>
       </c>
-      <c r="D82" s="6">
-        <v>35.142739573999997</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="D82" s="7">
+        <v>35.142739574</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F82" s="8">
         <v>7109852</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G82" s="9">
         <v>5</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="6" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C83" s="6">
-        <v>128.48901122800001</v>
-      </c>
-      <c r="D83" s="6">
-        <v>35.854487380999998</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="C83" s="7">
+        <v>128.489011228</v>
+      </c>
+      <c r="D83" s="7">
+        <v>35.854487381</v>
+      </c>
+      <c r="E83" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F83" s="8">
         <v>7279405</v>
       </c>
-      <c r="G83" s="5">
+      <c r="G83" s="9">
         <v>5</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="6" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="7">
         <v>126.928937319</v>
       </c>
-      <c r="D84" s="6">
-        <v>36.768351195999998</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="D84" s="7">
+        <v>36.768351196</v>
+      </c>
+      <c r="E84" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F84" s="8">
         <v>7873075</v>
       </c>
-      <c r="G84" s="5">
+      <c r="G84" s="9">
         <v>5</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" s="6" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85" s="7">
         <v>127.740838516</v>
       </c>
-      <c r="D85" s="6">
-        <v>37.887574565000001</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="D85" s="7">
+        <v>37.887574565</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85" s="8">
         <v>7540804</v>
       </c>
-      <c r="G85" s="5">
+      <c r="G85" s="9">
         <v>5</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85" s="6" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="7">
         <v>129.389506877</v>
       </c>
-      <c r="D86" s="6">
-        <v>36.104691768000002</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="D86" s="7">
+        <v>36.104691768</v>
+      </c>
+      <c r="E86" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F86" s="8">
         <v>7122951</v>
       </c>
-      <c r="G86" s="5">
+      <c r="G86" s="9">
         <v>5</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" s="6" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C87" s="6">
-        <v>128.79580619000001</v>
-      </c>
-      <c r="D87" s="6">
+      <c r="C87" s="7">
+        <v>128.79580619</v>
+      </c>
+      <c r="D87" s="7">
         <v>36.545505145</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F87" s="8">
         <v>3748928</v>
       </c>
-      <c r="G87" s="5">
+      <c r="G87" s="9">
         <v>5</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H87" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C88" s="6">
-        <v>127.47962456899999</v>
-      </c>
-      <c r="D88" s="6">
-        <v>34.966566612999998</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="C88" s="7">
+        <v>127.479624569</v>
+      </c>
+      <c r="D88" s="7">
+        <v>34.966566613</v>
+      </c>
+      <c r="E88" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F88" s="8">
         <v>3951411</v>
       </c>
-      <c r="G88" s="5">
+      <c r="G88" s="9">
         <v>5</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H88" s="6" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="7">
         <v>126.68347528</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D89" s="7">
         <v>35.950604704</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F89" s="8">
         <v>3918285</v>
       </c>
-      <c r="G89" s="5">
+      <c r="G89" s="9">
         <v>5</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H89" s="6" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.5">
       <c r="A90" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="7">
         <v>126.434288165</v>
       </c>
-      <c r="D90" s="6">
-        <v>34.907131116999999</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="D90" s="7">
+        <v>34.907131117</v>
+      </c>
+      <c r="E90" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F90" s="8">
         <v>3887172</v>
       </c>
-      <c r="G90" s="5">
+      <c r="G90" s="9">
         <v>5</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H90" s="6" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91" s="7">
         <v>126.363410676</v>
       </c>
-      <c r="D91" s="6">
-        <v>34.791874759000002</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="D91" s="7">
+        <v>34.791874759</v>
+      </c>
+      <c r="E91" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="F91" s="7">
+      <c r="F91" s="8">
         <v>3404767</v>
       </c>
-      <c r="G91" s="5">
+      <c r="G91" s="9">
         <v>5</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H91" s="6" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C92" s="7">
         <v>127.871929341</v>
       </c>
-      <c r="D92" s="6">
-        <v>36.972234270000001</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="D92" s="7">
+        <v>36.97223427</v>
+      </c>
+      <c r="E92" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F92" s="8">
         <v>4110184</v>
       </c>
-      <c r="G92" s="5">
+      <c r="G92" s="9">
         <v>4</v>
       </c>
-      <c r="H92" s="8" t="s">
+      <c r="H92" s="10" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="C93" s="6">
-        <v>128.38826791599999</v>
-      </c>
-      <c r="D93" s="6">
+      <c r="C93" s="7">
+        <v>128.388267916</v>
+      </c>
+      <c r="D93" s="7">
         <v>36.144701499</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F93" s="8">
         <v>3765638</v>
       </c>
-      <c r="G93" s="5">
+      <c r="G93" s="9">
         <v>4</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H93" s="6" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94" s="7">
         <v>128.870813618</v>
       </c>
-      <c r="D94" s="6">
-        <v>37.768331973999999</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="D94" s="7">
+        <v>37.768331974</v>
+      </c>
+      <c r="E94" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="F94" s="7">
+      <c r="F94" s="8">
         <v>4253274</v>
       </c>
-      <c r="G94" s="5">
+      <c r="G94" s="9">
         <v>4</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" s="6" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="7">
         <v>127.921638151</v>
       </c>
-      <c r="D95" s="6">
-        <v>37.305303156999997</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="D95" s="7">
+        <v>37.305303157</v>
+      </c>
+      <c r="E95" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="F95" s="7">
+      <c r="F95" s="8">
         <v>4253274</v>
       </c>
-      <c r="G95" s="5">
+      <c r="G95" s="9">
         <v>4</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H95" s="6" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C96" s="6">
-        <v>128.69357113800001</v>
-      </c>
-      <c r="D96" s="6">
-        <v>35.246482718999999</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="C96" s="7">
+        <v>128.693571138</v>
+      </c>
+      <c r="D96" s="7">
+        <v>35.246482719</v>
+      </c>
+      <c r="E96" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="F96" s="7">
+      <c r="F96" s="8">
         <v>3876810</v>
       </c>
-      <c r="G96" s="5">
+      <c r="G96" s="9">
         <v>4</v>
       </c>
-      <c r="H96" t="s">
+      <c r="H96" s="6" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C97" s="6">
-        <v>127.14255113199999</v>
-      </c>
-      <c r="D97" s="6">
-        <v>36.471771689999997</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="C97" s="7">
+        <v>127.142551132</v>
+      </c>
+      <c r="D97" s="7">
+        <v>36.47177169</v>
+      </c>
+      <c r="E97" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="F97" s="7">
+      <c r="F97" s="8">
         <v>3828317</v>
       </c>
-      <c r="G97" s="5">
+      <c r="G97" s="9">
         <v>4</v>
       </c>
-      <c r="H97" t="s">
+      <c r="H97" s="6" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C98" s="7">
         <v>127.304060707</v>
       </c>
-      <c r="D98" s="6">
-        <v>36.346556337999999</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="D98" s="7">
+        <v>36.346556338</v>
+      </c>
+      <c r="E98" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="F98" s="7">
+      <c r="F98" s="8">
         <v>4471034</v>
       </c>
-      <c r="G98" s="5">
+      <c r="G98" s="9">
         <v>4</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H98" s="6" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C99" s="6">
-        <v>129.09018807300001</v>
-      </c>
-      <c r="D99" s="6">
-        <v>35.074221502999997</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="C99" s="7">
+        <v>129.090188073</v>
+      </c>
+      <c r="D99" s="7">
+        <v>35.074221503</v>
+      </c>
+      <c r="E99" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="F99" s="7">
+      <c r="F99" s="8">
         <v>3723612</v>
       </c>
-      <c r="G99" s="5">
+      <c r="G99" s="9">
         <v>4</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H99" s="6" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100" s="7">
         <v>126.928542592</v>
       </c>
-      <c r="D100" s="6">
-        <v>37.380692150999998</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="D100" s="7">
+        <v>37.380692151</v>
+      </c>
+      <c r="E100" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="F100" s="7">
+      <c r="F100" s="8">
         <v>7251329</v>
       </c>
-      <c r="G100" s="5">
+      <c r="G100" s="9">
         <v>4</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H100" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101" s="7">
         <v>127.157380717</v>
       </c>
-      <c r="D101" s="6">
-        <v>37.872792957000001</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="D101" s="7">
+        <v>37.872792957</v>
+      </c>
+      <c r="E101" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="F101" s="7">
+      <c r="F101" s="8">
         <v>7256019</v>
       </c>
-      <c r="G101" s="5">
+      <c r="G101" s="9">
         <v>4</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H101" s="6" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C102" s="6">
+      <c r="C102" s="7">
         <v>127.038635493</v>
       </c>
-      <c r="D102" s="6">
-        <v>37.904180201000003</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="D102" s="7">
+        <v>37.904180201</v>
+      </c>
+      <c r="E102" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="F102" s="7">
+      <c r="F102" s="8">
         <v>9163632</v>
       </c>
-      <c r="G102" s="5">
+      <c r="G102" s="9">
         <v>4</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H102" s="6" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="C103" s="6">
+      <c r="C103" s="7">
         <v>127.043660316</v>
       </c>
-      <c r="D103" s="6">
-        <v>37.710301862999998</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="D103" s="7">
+        <v>37.710301863</v>
+      </c>
+      <c r="E103" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="F103" s="7">
+      <c r="F103" s="8">
         <v>9163632</v>
       </c>
-      <c r="G103" s="5">
+      <c r="G103" s="9">
         <v>4</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H103" s="6" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="C104" s="6">
+      <c r="C104" s="7">
         <v>126.952697137</v>
       </c>
-      <c r="D104" s="6">
-        <v>37.212463272999997</v>
-      </c>
-      <c r="E104" t="s">
+      <c r="D104" s="7">
+        <v>37.212463273</v>
+      </c>
+      <c r="E104" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="F104" s="7">
+      <c r="F104" s="8">
         <v>7460014</v>
       </c>
-      <c r="G104" s="5">
+      <c r="G104" s="9">
         <v>4</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H104" s="6" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="C105" s="6">
+      <c r="C105" s="7">
         <v>127.133195066</v>
       </c>
-      <c r="D105" s="6">
-        <v>36.993510706999999</v>
-      </c>
-      <c r="E105" t="s">
+      <c r="D105" s="7">
+        <v>36.993510707</v>
+      </c>
+      <c r="E105" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="F105" s="7">
+      <c r="F105" s="8">
         <v>7576066</v>
       </c>
-      <c r="G105" s="5">
+      <c r="G105" s="9">
         <v>4</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H105" s="6" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="C106" s="6">
+      <c r="C106" s="7">
         <v>127.018806224</v>
       </c>
-      <c r="D106" s="6">
-        <v>37.195156089000001</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="D106" s="7">
+        <v>37.195156089</v>
+      </c>
+      <c r="E106" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="F106" s="7">
+      <c r="F106" s="8">
         <v>7246246</v>
       </c>
-      <c r="G106" s="5">
+      <c r="G106" s="9">
         <v>4</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H106" s="6" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="C107" s="6">
+      <c r="C107" s="7">
         <v>127.264626655</v>
       </c>
-      <c r="D107" s="6">
-        <v>37.011744780000001</v>
-      </c>
-      <c r="E107" t="s">
+      <c r="D107" s="7">
+        <v>37.01174478</v>
+      </c>
+      <c r="E107" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="F107" s="7">
+      <c r="F107" s="8">
         <v>4037828</v>
       </c>
-      <c r="G107" s="5">
+      <c r="G107" s="9">
         <v>4</v>
       </c>
-      <c r="H107" t="s">
+      <c r="H107" s="6" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="C108" s="6">
+      <c r="C108" s="7">
         <v>126.974692823</v>
       </c>
-      <c r="D108" s="6">
-        <v>37.209373651999996</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="D108" s="7">
+        <v>37.209373652</v>
+      </c>
+      <c r="E108" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="F108" s="7">
+      <c r="F108" s="8">
         <v>7557824</v>
       </c>
-      <c r="G108" s="5">
+      <c r="G108" s="9">
         <v>4</v>
       </c>
-      <c r="H108" t="s">
+      <c r="H108" s="6" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="C109" s="6">
+      <c r="C109" s="7">
         <v>127.169501395</v>
       </c>
-      <c r="D109" s="6">
+      <c r="D109" s="7">
         <v>37.225773986</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="F109" s="7">
+      <c r="F109" s="8">
         <v>7735746</v>
       </c>
-      <c r="G109" s="5">
+      <c r="G109" s="9">
         <v>4</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H109" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="C110" s="6">
+      <c r="C110" s="7">
         <v>127.134947135</v>
       </c>
-      <c r="D110" s="6">
-        <v>37.278050182000001</v>
-      </c>
-      <c r="E110" t="s">
+      <c r="D110" s="7">
+        <v>37.278050182</v>
+      </c>
+      <c r="E110" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="F110" s="7">
+      <c r="F110" s="8">
         <v>7535146</v>
       </c>
-      <c r="G110" s="5">
+      <c r="G110" s="9">
         <v>4</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H110" s="6" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C111" s="6">
-        <v>126.44471138599999</v>
-      </c>
-      <c r="D111" s="6">
-        <v>37.711003896000001</v>
-      </c>
-      <c r="E111" t="s">
+      <c r="C111" s="7">
+        <v>126.444711386</v>
+      </c>
+      <c r="D111" s="7">
+        <v>37.711003896</v>
+      </c>
+      <c r="E111" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="F111" s="7">
+      <c r="F111" s="8">
         <v>7622776</v>
       </c>
-      <c r="G111" s="5">
+      <c r="G111" s="9">
         <v>4</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H111" s="6" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="C112" s="6">
+      <c r="C112" s="7">
         <v>127.164472926</v>
       </c>
-      <c r="D112" s="6">
-        <v>37.460346583000003</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="D112" s="7">
+        <v>37.460346583</v>
+      </c>
+      <c r="E112" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="F112" s="7">
+      <c r="F112" s="8">
         <v>10413967</v>
       </c>
-      <c r="G112" s="5">
+      <c r="G112" s="9">
         <v>4</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H112" s="6" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="C113" s="6">
+      <c r="C113" s="7">
         <v>127.053333827</v>
       </c>
-      <c r="D113" s="6">
-        <v>37.752951969000001</v>
-      </c>
-      <c r="E113" t="s">
+      <c r="D113" s="7">
+        <v>37.752951969</v>
+      </c>
+      <c r="E113" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="F113" s="7">
+      <c r="F113" s="8">
         <v>10413967</v>
       </c>
-      <c r="G113" s="5">
+      <c r="G113" s="9">
         <v>4</v>
       </c>
-      <c r="H113" t="s">
+      <c r="H113" s="6" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="C114" s="6">
+      <c r="C114" s="7">
         <v>127.405713765</v>
       </c>
-      <c r="D114" s="6">
-        <v>36.332959762000002</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="D114" s="7">
+        <v>36.332959762</v>
+      </c>
+      <c r="E114" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="F114" s="7">
+      <c r="F114" s="8">
         <v>10413967</v>
       </c>
-      <c r="G114" s="5">
+      <c r="G114" s="9">
         <v>4</v>
       </c>
-      <c r="H114" t="s">
+      <c r="H114" s="6" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="C115" s="6">
-        <v>128.75971254199999</v>
-      </c>
-      <c r="D115" s="6">
+      <c r="C115" s="7">
+        <v>128.759712542</v>
+      </c>
+      <c r="D115" s="7">
         <v>35.835751787</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="F115" s="7">
+      <c r="F115" s="8">
         <v>7461513</v>
       </c>
-      <c r="G115" s="5">
+      <c r="G115" s="9">
         <v>4</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H115" s="6" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="C116" s="6">
+      <c r="C116" s="7">
         <v>128.968316754</v>
       </c>
-      <c r="D116" s="6">
-        <v>35.116059485000001</v>
-      </c>
-      <c r="E116" t="s">
+      <c r="D116" s="7">
+        <v>35.116059485</v>
+      </c>
+      <c r="E116" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="F116" s="7">
+      <c r="F116" s="8">
         <v>7078778</v>
       </c>
-      <c r="G116" s="5">
+      <c r="G116" s="9">
         <v>4</v>
       </c>
-      <c r="H116" t="s">
+      <c r="H116" s="6" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C117" s="6">
+      <c r="C117" s="7">
         <v>126.734135825</v>
       </c>
-      <c r="D117" s="6">
+      <c r="D117" s="7">
         <v>37.340676056</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="F117" s="7">
+      <c r="F117" s="8">
         <v>9034616</v>
       </c>
-      <c r="G117" s="5">
+      <c r="G117" s="9">
         <v>4</v>
       </c>
-      <c r="H117" t="s">
+      <c r="H117" s="6" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="C118" s="6">
+      <c r="C118" s="7">
         <v>126.8250309</v>
       </c>
-      <c r="D118" s="6">
-        <v>37.488344871000002</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="D118" s="7">
+        <v>37.488344871</v>
+      </c>
+      <c r="E118" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="F118" s="7">
+      <c r="F118" s="8">
         <v>7089425</v>
       </c>
-      <c r="G118" s="5">
+      <c r="G118" s="9">
         <v>4</v>
       </c>
-      <c r="H118" t="s">
+      <c r="H118" s="6" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="C119" s="6">
-        <v>126.96653860799999</v>
-      </c>
-      <c r="D119" s="6">
-        <v>37.488607991000002</v>
-      </c>
-      <c r="E119" t="s">
+      <c r="C119" s="7">
+        <v>126.966538608</v>
+      </c>
+      <c r="D119" s="7">
+        <v>37.488607991</v>
+      </c>
+      <c r="E119" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="F119" s="7">
+      <c r="F119" s="8">
         <v>6973645</v>
       </c>
-      <c r="G119" s="5">
+      <c r="G119" s="9">
         <v>4</v>
       </c>
-      <c r="H119" t="s">
+      <c r="H119" s="6" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="C120" s="6">
-        <v>127.89878192800001</v>
-      </c>
-      <c r="D120" s="6">
-        <v>37.285183955999997</v>
-      </c>
-      <c r="E120" t="s">
+      <c r="C120" s="7">
+        <v>127.898781928</v>
+      </c>
+      <c r="D120" s="7">
+        <v>37.285183956</v>
+      </c>
+      <c r="E120" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="F120" s="7">
+      <c r="F120" s="8">
         <v>9203802</v>
       </c>
-      <c r="G120" s="5">
+      <c r="G120" s="9">
         <v>4</v>
       </c>
-      <c r="H120" t="s">
+      <c r="H120" s="6" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="C121" s="6">
+      <c r="C121" s="7">
         <v>127.283723821</v>
       </c>
-      <c r="D121" s="6">
-        <v>36.609630707000001</v>
-      </c>
-      <c r="E121" t="s">
+      <c r="D121" s="7">
+        <v>36.609630707</v>
+      </c>
+      <c r="E121" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="F121" s="7">
+      <c r="F121" s="8">
         <v>8335434</v>
       </c>
-      <c r="G121" s="5">
+      <c r="G121" s="9">
         <v>4</v>
       </c>
-      <c r="H121" t="s">
+      <c r="H121" s="6" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="C122" s="6">
+      <c r="C122" s="7">
         <v>127.167687606</v>
       </c>
-      <c r="D122" s="6">
-        <v>36.836186009999999</v>
-      </c>
-      <c r="E122" t="s">
+      <c r="D122" s="7">
+        <v>36.83618601</v>
+      </c>
+      <c r="E122" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="F122" s="7">
+      <c r="F122" s="8">
         <v>8073411</v>
       </c>
-      <c r="G122" s="5">
+      <c r="G122" s="9">
         <v>4</v>
       </c>
-      <c r="H122" t="s">
+      <c r="H122" s="6" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="C123" s="6">
+      <c r="C123" s="7">
         <v>127.459206345</v>
       </c>
-      <c r="D123" s="6">
-        <v>36.631560229000002</v>
-      </c>
-      <c r="E123" t="s">
+      <c r="D123" s="7">
+        <v>36.631560229</v>
+      </c>
+      <c r="E123" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="F123" s="7">
+      <c r="F123" s="8">
         <v>4289666</v>
       </c>
-      <c r="G123" s="5">
+      <c r="G123" s="9">
         <v>3</v>
       </c>
-      <c r="H123" s="8" t="s">
+      <c r="H123" s="10" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="C124" s="6">
+      <c r="C124" s="7">
         <v>127.136464352</v>
       </c>
-      <c r="D124" s="6">
-        <v>35.847307616999998</v>
-      </c>
-      <c r="E124" t="s">
+      <c r="D124" s="7">
+        <v>35.847307617</v>
+      </c>
+      <c r="E124" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="F124" s="7">
+      <c r="F124" s="8">
         <v>4431726</v>
       </c>
-      <c r="G124" s="5">
+      <c r="G124" s="9">
         <v>3</v>
       </c>
-      <c r="H124" s="8" t="s">
+      <c r="H124" s="10" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="C125" s="6">
+      <c r="C125" s="7">
         <v>127.742956869</v>
       </c>
-      <c r="D125" s="6">
-        <v>37.867422757999996</v>
-      </c>
-      <c r="E125" t="s">
+      <c r="D125" s="7">
+        <v>37.867422758</v>
+      </c>
+      <c r="E125" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="F125" s="7">
+      <c r="F125" s="8">
         <v>4102933</v>
       </c>
-      <c r="G125" s="5">
+      <c r="G125" s="9">
         <v>3</v>
       </c>
-      <c r="H125" t="s">
+      <c r="H125" s="6" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="C126" s="6">
-        <v>129.16174968799999</v>
-      </c>
-      <c r="D126" s="6">
-        <v>37.452579329999999</v>
-      </c>
-      <c r="E126" t="s">
+      <c r="C126" s="7">
+        <v>129.161749688</v>
+      </c>
+      <c r="D126" s="7">
+        <v>37.45257933</v>
+      </c>
+      <c r="E126" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="F126" s="7">
+      <c r="F126" s="8">
         <v>4102933</v>
       </c>
-      <c r="G126" s="5">
+      <c r="G126" s="9">
         <v>3</v>
       </c>
-      <c r="H126" t="s">
+      <c r="H126" s="6" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="C127" s="6">
+      <c r="C127" s="7">
         <v>126.567153109</v>
       </c>
-      <c r="D127" s="6">
-        <v>33.452410696000001</v>
-      </c>
-      <c r="E127" t="s">
+      <c r="D127" s="7">
+        <v>33.452410696</v>
+      </c>
+      <c r="E127" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="F127" s="7">
+      <c r="F127" s="8">
         <v>3977333</v>
       </c>
-      <c r="G127" s="5">
+      <c r="G127" s="9">
         <v>3</v>
       </c>
-      <c r="H127" t="s">
+      <c r="H127" s="6" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="C128" s="6">
+      <c r="C128" s="7">
         <v>128.098028871</v>
       </c>
-      <c r="D128" s="6">
+      <c r="D128" s="7">
         <v>35.150502822</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="F128" s="7">
+      <c r="F128" s="8">
         <v>4075879</v>
       </c>
-      <c r="G128" s="5">
+      <c r="G128" s="9">
         <v>3</v>
       </c>
-      <c r="H128" t="s">
+      <c r="H128" s="6" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="C129" s="6">
-        <v>129.10953109600001</v>
-      </c>
-      <c r="D129" s="6">
-        <v>35.134925537999997</v>
-      </c>
-      <c r="E129" t="s">
+      <c r="C129" s="7">
+        <v>129.109531096</v>
+      </c>
+      <c r="D129" s="7">
+        <v>35.134925538</v>
+      </c>
+      <c r="E129" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="F129" s="7">
+      <c r="F129" s="8">
         <v>4035531</v>
       </c>
-      <c r="G129" s="5">
+      <c r="G129" s="9">
         <v>3</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H129" s="6" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="C130" s="6">
-        <v>129.09029899999999</v>
-      </c>
-      <c r="D130" s="6">
-        <v>35.115742099999999</v>
-      </c>
-      <c r="E130" t="s">
+      <c r="C130" s="7">
+        <v>129.090299</v>
+      </c>
+      <c r="D130" s="7">
+        <v>35.1157421</v>
+      </c>
+      <c r="E130" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="F130" s="7">
+      <c r="F130" s="8">
         <v>4035531</v>
       </c>
-      <c r="G130" s="5">
+      <c r="G130" s="9">
         <v>3</v>
       </c>
-      <c r="H130" t="s">
+      <c r="H130" s="6" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="C131" s="6">
+      <c r="C131" s="7">
         <v>127.010978115</v>
       </c>
-      <c r="D131" s="6">
-        <v>37.582383352000001</v>
-      </c>
-      <c r="E131" t="s">
+      <c r="D131" s="7">
+        <v>37.582383352</v>
+      </c>
+      <c r="E131" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="F131" s="7">
+      <c r="F131" s="8">
         <v>7778890</v>
       </c>
-      <c r="G131" s="5">
+      <c r="G131" s="9">
         <v>3</v>
       </c>
-      <c r="H131" t="s">
+      <c r="H131" s="6" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="C132" s="6">
-        <v>127.01158370500001</v>
-      </c>
-      <c r="D132" s="6">
-        <v>37.616358578000003</v>
-      </c>
-      <c r="E132" t="s">
+      <c r="C132" s="7">
+        <v>127.011583705</v>
+      </c>
+      <c r="D132" s="7">
+        <v>37.616358578</v>
+      </c>
+      <c r="E132" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="F132" s="7">
+      <c r="F132" s="8">
         <v>7966242</v>
       </c>
-      <c r="G132" s="5">
+      <c r="G132" s="9">
         <v>3</v>
       </c>
-      <c r="H132" t="s">
+      <c r="H132" s="6" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="C133" s="6">
+      <c r="C133" s="7">
         <v>127.102076806</v>
       </c>
-      <c r="D133" s="6">
-        <v>37.642417651000002</v>
-      </c>
-      <c r="E133" t="s">
+      <c r="D133" s="7">
+        <v>37.642417651</v>
+      </c>
+      <c r="E133" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="F133" s="7">
+      <c r="F133" s="8">
         <v>7830281</v>
       </c>
-      <c r="G133" s="5">
+      <c r="G133" s="9">
         <v>3</v>
       </c>
-      <c r="H133" t="s">
+      <c r="H133" s="6" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="C134" s="6">
+      <c r="C134" s="7">
         <v>127.042988063</v>
       </c>
-      <c r="D134" s="6">
-        <v>37.607594947000003</v>
-      </c>
-      <c r="E134" t="s">
+      <c r="D134" s="7">
+        <v>37.607594947</v>
+      </c>
+      <c r="E134" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="F134" s="7">
+      <c r="F134" s="8">
         <v>7456251</v>
       </c>
-      <c r="G134" s="5">
+      <c r="G134" s="9">
         <v>3</v>
       </c>
-      <c r="H134" t="s">
+      <c r="H134" s="6" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="C135" s="6">
+      <c r="C135" s="7">
         <v>127.016592256</v>
       </c>
-      <c r="D135" s="6">
-        <v>37.650639005000002</v>
-      </c>
-      <c r="E135" t="s">
+      <c r="D135" s="7">
+        <v>37.650639005</v>
+      </c>
+      <c r="E135" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="F135" s="7">
+      <c r="F135" s="8">
         <v>7187575</v>
       </c>
-      <c r="G135" s="5">
+      <c r="G135" s="9">
         <v>3</v>
       </c>
-      <c r="H135" t="s">
+      <c r="H135" s="6" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="C136" s="6">
-        <v>127.08929837399999</v>
-      </c>
-      <c r="D136" s="6">
-        <v>37.630675891999999</v>
-      </c>
-      <c r="E136" t="s">
+      <c r="C136" s="7">
+        <v>127.089298374</v>
+      </c>
+      <c r="D136" s="7">
+        <v>37.630675892</v>
+      </c>
+      <c r="E136" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="F136" s="7">
+      <c r="F136" s="8">
         <v>7593346</v>
       </c>
-      <c r="G136" s="5">
+      <c r="G136" s="9">
         <v>3</v>
       </c>
-      <c r="H136" t="s">
+      <c r="H136" s="6" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="C137" s="6">
-        <v>126.63203022899999</v>
-      </c>
-      <c r="D137" s="6">
-        <v>37.375522127000004</v>
-      </c>
-      <c r="E137" t="s">
+      <c r="C137" s="7">
+        <v>126.632030229</v>
+      </c>
+      <c r="D137" s="7">
+        <v>37.375522127</v>
+      </c>
+      <c r="E137" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="F137" s="7">
+      <c r="F137" s="8">
         <v>4632119</v>
       </c>
-      <c r="G137" s="5">
+      <c r="G137" s="9">
         <v>3</v>
       </c>
-      <c r="H137" t="s">
+      <c r="H137" s="6" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="C138" s="6">
+      <c r="C138" s="7">
         <v>127.006418071</v>
       </c>
-      <c r="D138" s="6">
-        <v>37.501329441000003</v>
-      </c>
-      <c r="E138" t="s">
+      <c r="D138" s="7">
+        <v>37.501329441</v>
+      </c>
+      <c r="E138" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="F138" s="7">
+      <c r="F138" s="8">
         <v>7071832</v>
       </c>
-      <c r="G138" s="5">
+      <c r="G138" s="9">
         <v>3</v>
       </c>
-      <c r="H138" s="8" t="s">
+      <c r="H138" s="10" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="C139" s="6">
-        <v>127.00465614399999</v>
-      </c>
-      <c r="D139" s="6">
-        <v>37.584748746999999</v>
-      </c>
-      <c r="E139" t="s">
+      <c r="C139" s="7">
+        <v>127.004656144</v>
+      </c>
+      <c r="D139" s="7">
+        <v>37.584748747</v>
+      </c>
+      <c r="E139" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="F139" s="7">
+      <c r="F139" s="8">
         <v>7071832</v>
       </c>
-      <c r="G139" s="5">
+      <c r="G139" s="9">
         <v>3</v>
       </c>
-      <c r="H139" t="s">
+      <c r="H139" s="6" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="C140" s="6">
+      <c r="C140" s="7">
         <v>126.79858</v>
       </c>
-      <c r="D140" s="6">
-        <v>37.487510399999998</v>
-      </c>
-      <c r="E140" t="s">
+      <c r="D140" s="7">
+        <v>37.4875104</v>
+      </c>
+      <c r="E140" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="F140" s="7">
+      <c r="F140" s="8">
         <v>7071832</v>
       </c>
-      <c r="G140" s="5">
+      <c r="G140" s="9">
         <v>3</v>
       </c>
-      <c r="H140" t="s">
+      <c r="H140" s="6" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="C141" s="6">
-        <v>127.34205783100001</v>
-      </c>
-      <c r="D141" s="6">
-        <v>36.365331660999999</v>
-      </c>
-      <c r="E141" t="s">
+      <c r="C141" s="7">
+        <v>127.342057831</v>
+      </c>
+      <c r="D141" s="7">
+        <v>36.365331661</v>
+      </c>
+      <c r="E141" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="F141" s="7">
+      <c r="F141" s="8">
         <v>4364968</v>
       </c>
-      <c r="G141" s="5">
+      <c r="G141" s="9">
         <v>3</v>
       </c>
-      <c r="H141" t="s">
+      <c r="H141" s="6" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="C142" s="6">
+      <c r="C142" s="7">
         <v>126.910273692</v>
       </c>
-      <c r="D142" s="6">
-        <v>35.177540225999998</v>
-      </c>
-      <c r="E142" t="s">
+      <c r="D142" s="7">
+        <v>35.177540226</v>
+      </c>
+      <c r="E142" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="F142" s="7">
+      <c r="F142" s="8">
         <v>4167688</v>
       </c>
-      <c r="G142" s="5">
+      <c r="G142" s="9">
         <v>3</v>
       </c>
-      <c r="H142" t="s">
+      <c r="H142" s="6" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="C143" s="6">
+      <c r="C143" s="7">
         <v>127.021299673</v>
       </c>
-      <c r="D143" s="6">
-        <v>37.592344056000002</v>
-      </c>
-      <c r="E143" t="s">
+      <c r="D143" s="7">
+        <v>37.592344056</v>
+      </c>
+      <c r="E143" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="F143" s="7">
+      <c r="F143" s="8">
         <v>7935790</v>
       </c>
-      <c r="G143" s="5">
+      <c r="G143" s="9">
         <v>3</v>
       </c>
-      <c r="H143" t="s">
+      <c r="H143" s="6" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="C144" s="6">
-        <v>126.96224300900001</v>
-      </c>
-      <c r="D144" s="6">
-        <v>37.564751223999998</v>
-      </c>
-      <c r="E144" t="s">
+      <c r="C144" s="7">
+        <v>126.962243009</v>
+      </c>
+      <c r="D144" s="7">
+        <v>37.564751224</v>
+      </c>
+      <c r="E144" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="F144" s="7">
+      <c r="F144" s="8">
         <v>7369170</v>
       </c>
-      <c r="G144" s="5">
+      <c r="G144" s="9">
         <v>3</v>
       </c>
-      <c r="H144" t="s">
+      <c r="H144" s="6" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="C145" s="6">
+      <c r="C145" s="7">
         <v>127.128629038</v>
       </c>
-      <c r="D145" s="6">
-        <v>37.449721703000002</v>
-      </c>
-      <c r="E145" t="s">
+      <c r="D145" s="7">
+        <v>37.449721703</v>
+      </c>
+      <c r="E145" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="F145" s="7">
+      <c r="F145" s="8">
         <v>8330044</v>
       </c>
-      <c r="G145" s="5">
+      <c r="G145" s="9">
         <v>3</v>
       </c>
-      <c r="H145" s="8" t="s">
+      <c r="H145" s="10" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="C146" s="6">
-        <v>126.83540027799999</v>
-      </c>
-      <c r="D146" s="6">
-        <v>37.300272632000002</v>
-      </c>
-      <c r="E146" t="s">
+      <c r="C146" s="7">
+        <v>126.835400278</v>
+      </c>
+      <c r="D146" s="7">
+        <v>37.300272632</v>
+      </c>
+      <c r="E146" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="F146" s="7">
+      <c r="F146" s="8">
         <v>8556877</v>
       </c>
-      <c r="G146" s="5">
+      <c r="G146" s="9">
         <v>3</v>
       </c>
-      <c r="H146" t="s">
+      <c r="H146" s="6" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="C147" s="6">
+      <c r="C147" s="7">
         <v>127.061076052</v>
       </c>
-      <c r="D147" s="6">
-        <v>37.620067779999999</v>
-      </c>
-      <c r="E147" t="s">
+      <c r="D147" s="7">
+        <v>37.62006778</v>
+      </c>
+      <c r="E147" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="F147" s="7">
+      <c r="F147" s="8">
         <v>7885046</v>
       </c>
-      <c r="G147" s="5">
+      <c r="G147" s="9">
         <v>3</v>
       </c>
-      <c r="H147" t="s">
+      <c r="H147" s="6" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="C148" s="6">
+      <c r="C148" s="7">
         <v>126.924221731</v>
       </c>
-      <c r="D148" s="6">
-        <v>37.580101784999997</v>
-      </c>
-      <c r="E148" t="s">
+      <c r="D148" s="7">
+        <v>37.580101785</v>
+      </c>
+      <c r="E148" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="F148" s="7">
+      <c r="F148" s="8">
         <v>9157983</v>
       </c>
-      <c r="G148" s="5">
+      <c r="G148" s="9">
         <v>3</v>
       </c>
-      <c r="H148" t="s">
+      <c r="H148" s="6" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="C149" s="6">
+      <c r="C149" s="7">
         <v>127.183916447</v>
       </c>
-      <c r="D149" s="6">
-        <v>37.219163387999998</v>
-      </c>
-      <c r="E149" t="s">
+      <c r="D149" s="7">
+        <v>37.219163388</v>
+      </c>
+      <c r="E149" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="F149" s="7">
+      <c r="F149" s="8">
         <v>9157983</v>
       </c>
-      <c r="G149" s="5">
+      <c r="G149" s="9">
         <v>3</v>
       </c>
-      <c r="H149" t="s">
+      <c r="H149" s="6" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="C150" s="6">
+      <c r="C150" s="7">
         <v>126.95633852</v>
       </c>
-      <c r="D150" s="6">
-        <v>37.601877428000002</v>
-      </c>
-      <c r="E150" t="s">
+      <c r="D150" s="7">
+        <v>37.601877428</v>
+      </c>
+      <c r="E150" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="F150" s="7">
+      <c r="F150" s="8">
         <v>7773461</v>
       </c>
-      <c r="G150" s="5">
+      <c r="G150" s="9">
         <v>3</v>
       </c>
-      <c r="H150" s="8" t="s">
+      <c r="H150" s="10" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="C151" s="6">
-        <v>127.12829390100001</v>
-      </c>
-      <c r="D151" s="6">
-        <v>37.319070957000001</v>
-      </c>
-      <c r="E151" t="s">
+      <c r="C151" s="7">
+        <v>127.128293901</v>
+      </c>
+      <c r="D151" s="7">
+        <v>37.319070957</v>
+      </c>
+      <c r="E151" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="F151" s="7">
+      <c r="F151" s="8">
         <v>8073411</v>
       </c>
-      <c r="G151" s="5">
+      <c r="G151" s="9">
         <v>3</v>
       </c>
-      <c r="H151" t="s">
+      <c r="H151" s="6" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="C152" s="6">
+      <c r="C152" s="7">
         <v>126.864175163</v>
       </c>
-      <c r="D152" s="6">
-        <v>37.599026948000002</v>
-      </c>
-      <c r="E152" t="s">
+      <c r="D152" s="7">
+        <v>37.599026948</v>
+      </c>
+      <c r="E152" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="F152" s="7">
+      <c r="F152" s="8">
         <v>8510869</v>
       </c>
-      <c r="G152" s="5">
+      <c r="G152" s="9">
         <v>3</v>
       </c>
-      <c r="H152" t="s">
+      <c r="H152" s="6" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="C153" s="6">
-        <v>129.08385086300001</v>
-      </c>
-      <c r="D153" s="6">
-        <v>35.233371474000002</v>
-      </c>
-      <c r="E153" t="s">
+      <c r="C153" s="7">
+        <v>129.083850863</v>
+      </c>
+      <c r="D153" s="7">
+        <v>35.233371474</v>
+      </c>
+      <c r="E153" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="F153" s="7">
+      <c r="F153" s="8">
         <v>4464815</v>
       </c>
-      <c r="G153" s="5">
+      <c r="G153" s="9">
         <v>2</v>
       </c>
-      <c r="H153" t="s">
+      <c r="H153" s="6" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="C154" s="6">
-        <v>128.60771577700001</v>
-      </c>
-      <c r="D154" s="6">
-        <v>35.887720188000003</v>
-      </c>
-      <c r="E154" t="s">
+      <c r="C154" s="7">
+        <v>128.607715777</v>
+      </c>
+      <c r="D154" s="7">
+        <v>35.887720188</v>
+      </c>
+      <c r="E154" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="F154" s="7">
+      <c r="F154" s="8">
         <v>4499843</v>
       </c>
-      <c r="G154" s="5">
+      <c r="G154" s="9">
         <v>2</v>
       </c>
-      <c r="H154" t="s">
+      <c r="H154" s="6" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="C155" s="6">
+      <c r="C155" s="7">
         <v>126.658659724</v>
       </c>
-      <c r="D155" s="6">
-        <v>37.449168587999999</v>
-      </c>
-      <c r="E155" t="s">
+      <c r="D155" s="7">
+        <v>37.449168588</v>
+      </c>
+      <c r="E155" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="F155" s="7">
+      <c r="F155" s="8">
         <v>7770597</v>
       </c>
-      <c r="G155" s="5">
+      <c r="G155" s="9">
         <v>2</v>
       </c>
-      <c r="H155" t="s">
+      <c r="H155" s="6" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="C156" s="6">
-        <v>127.04880127200001</v>
-      </c>
-      <c r="D156" s="6">
-        <v>37.282192584999997</v>
-      </c>
-      <c r="E156" t="s">
+      <c r="C156" s="7">
+        <v>127.048801272</v>
+      </c>
+      <c r="D156" s="7">
+        <v>37.282192585</v>
+      </c>
+      <c r="E156" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="F156" s="7">
+      <c r="F156" s="8">
         <v>8312532</v>
       </c>
-      <c r="G156" s="5">
+      <c r="G156" s="9">
         <v>2</v>
       </c>
-      <c r="H156" t="s">
+      <c r="H156" s="6" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="C157" s="6">
-        <v>127.07374339499999</v>
-      </c>
-      <c r="D157" s="6">
-        <v>37.553006093999997</v>
-      </c>
-      <c r="E157" t="s">
+      <c r="C157" s="7">
+        <v>127.073743395</v>
+      </c>
+      <c r="D157" s="7">
+        <v>37.553006094</v>
+      </c>
+      <c r="E157" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="F157" s="7">
+      <c r="F157" s="8">
         <v>7944926</v>
       </c>
-      <c r="G157" s="5">
+      <c r="G157" s="9">
         <v>2</v>
       </c>
-      <c r="H157" t="s">
+      <c r="H157" s="6" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="C158" s="6">
+      <c r="C158" s="7">
         <v>126.963665081</v>
       </c>
-      <c r="D158" s="6">
-        <v>37.546278635999997</v>
-      </c>
-      <c r="E158" t="s">
+      <c r="D158" s="7">
+        <v>37.546278636</v>
+      </c>
+      <c r="E158" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="F158" s="7">
+      <c r="F158" s="8">
         <v>8137770</v>
       </c>
-      <c r="G158" s="5">
+      <c r="G158" s="9">
         <v>2</v>
       </c>
-      <c r="H158" t="s">
+      <c r="H158" s="6" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="C159" s="6">
-        <v>126.95837186999999</v>
-      </c>
-      <c r="D159" s="6">
-        <v>37.496847236000001</v>
-      </c>
-      <c r="E159" t="s">
+      <c r="C159" s="7">
+        <v>126.95837187</v>
+      </c>
+      <c r="D159" s="7">
+        <v>37.496847236</v>
+      </c>
+      <c r="E159" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="F159" s="7">
+      <c r="F159" s="8">
         <v>7979923</v>
       </c>
-      <c r="G159" s="5">
+      <c r="G159" s="9">
         <v>2</v>
       </c>
-      <c r="H159" t="s">
+      <c r="H159" s="6" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="C160" s="6">
-        <v>127.07879694099999</v>
-      </c>
-      <c r="D160" s="6">
-        <v>37.631676759000001</v>
-      </c>
-      <c r="E160" t="s">
+      <c r="C160" s="7">
+        <v>127.078796941</v>
+      </c>
+      <c r="D160" s="7">
+        <v>37.631676759</v>
+      </c>
+      <c r="E160" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="F160" s="7">
+      <c r="F160" s="8">
         <v>5465375</v>
       </c>
-      <c r="G160" s="5">
+      <c r="G160" s="9">
         <v>2</v>
       </c>
-      <c r="H160" t="s">
+      <c r="H160" s="6" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="C161" s="6">
-        <v>126.99716614800001</v>
-      </c>
-      <c r="D161" s="6">
-        <v>37.610929884000001</v>
-      </c>
-      <c r="E161" t="s">
+      <c r="C161" s="7">
+        <v>126.997166148</v>
+      </c>
+      <c r="D161" s="7">
+        <v>37.610929884</v>
+      </c>
+      <c r="E161" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="F161" s="7">
+      <c r="F161" s="8">
         <v>7976046</v>
       </c>
-      <c r="G161" s="5">
+      <c r="G161" s="9">
         <v>2</v>
       </c>
-      <c r="H161" t="s">
+      <c r="H161" s="6" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="C162" s="6">
-        <v>127.00252247500001</v>
-      </c>
-      <c r="D162" s="6">
-        <v>37.558452850000002</v>
-      </c>
-      <c r="E162" t="s">
+      <c r="C162" s="7">
+        <v>127.002522475</v>
+      </c>
+      <c r="D162" s="7">
+        <v>37.55845285</v>
+      </c>
+      <c r="E162" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="F162" s="7">
+      <c r="F162" s="8">
         <v>8006759</v>
       </c>
-      <c r="G162" s="5">
+      <c r="G162" s="9">
         <v>2</v>
       </c>
-      <c r="H162" t="s">
+      <c r="H162" s="6" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="C163" s="6">
+      <c r="C163" s="7">
         <v>126.926740952</v>
       </c>
-      <c r="D163" s="6">
+      <c r="D163" s="7">
         <v>37.551319311</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E163" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="F163" s="7">
+      <c r="F163" s="8">
         <v>8397128</v>
       </c>
-      <c r="G163" s="5">
+      <c r="G163" s="9">
         <v>2</v>
       </c>
-      <c r="H163" t="s">
+      <c r="H163" s="6" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="C164" s="6">
+      <c r="C164" s="7">
         <v>127.079101249</v>
       </c>
-      <c r="D164" s="6">
-        <v>37.541442207999999</v>
-      </c>
-      <c r="E164" t="s">
+      <c r="D164" s="7">
+        <v>37.541442208</v>
+      </c>
+      <c r="E164" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="F164" s="7">
+      <c r="F164" s="8">
         <v>8322290</v>
       </c>
-      <c r="G164" s="5">
+      <c r="G164" s="9">
         <v>2</v>
       </c>
-      <c r="H164" t="s">
+      <c r="H164" s="6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="21">
       <c r="A165" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="C165" s="6">
+      <c r="C165" s="7">
         <v>126.953798393</v>
       </c>
-      <c r="D165" s="6">
-        <v>37.504601372000003</v>
-      </c>
-      <c r="E165" t="s">
+      <c r="D165" s="7">
+        <v>37.504601372</v>
+      </c>
+      <c r="E165" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="F165" s="7">
+      <c r="F165" s="8">
         <v>7971001</v>
       </c>
-      <c r="G165" s="5">
+      <c r="G165" s="9">
         <v>1</v>
       </c>
-      <c r="H165" t="s">
+      <c r="H165" s="6" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="21">
       <c r="A166" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="C166" s="6">
-        <v>126.95087117200001</v>
-      </c>
-      <c r="D166" s="6">
-        <v>37.566311104999997</v>
-      </c>
-      <c r="E166" t="s">
+      <c r="C166" s="7">
+        <v>126.950871172</v>
+      </c>
+      <c r="D166" s="7">
+        <v>37.566311105</v>
+      </c>
+      <c r="E166" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="F166" s="7">
+      <c r="F166" s="8">
         <v>8742198</v>
       </c>
-      <c r="G166" s="5">
+      <c r="G166" s="9">
         <v>1</v>
       </c>
-      <c r="H166" t="s">
+      <c r="H166" s="6" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="21">
       <c r="A167" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="C167" s="6">
-        <v>127.04930903499999</v>
-      </c>
-      <c r="D167" s="6">
-        <v>37.595085105000003</v>
-      </c>
-      <c r="E167" t="s">
+      <c r="C167" s="7">
+        <v>127.049309035</v>
+      </c>
+      <c r="D167" s="7">
+        <v>37.595085105</v>
+      </c>
+      <c r="E167" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="F167" s="7">
+      <c r="F167" s="8">
         <v>7991355</v>
       </c>
-      <c r="G167" s="5">
+      <c r="G167" s="9">
         <v>1</v>
       </c>
-      <c r="H167" t="s">
+      <c r="H167" s="6" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="21">
       <c r="A168" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="C168" s="6">
+      <c r="C168" s="7">
         <v>127.057465511</v>
       </c>
-      <c r="D168" s="6">
+      <c r="D168" s="7">
         <v>37.596733123</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E168" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="F168" s="7">
+      <c r="F168" s="8">
         <v>7184492</v>
       </c>
-      <c r="G168" s="5">
+      <c r="G168" s="9">
         <v>1</v>
       </c>
-      <c r="H168" t="s">
+      <c r="H168" s="6" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="21">
       <c r="A169" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="C169" s="6">
+      <c r="C169" s="7">
         <v>127.057977232</v>
       </c>
-      <c r="D169" s="6">
-        <v>37.583682197999998</v>
-      </c>
-      <c r="E169" t="s">
+      <c r="D169" s="7">
+        <v>37.583682198</v>
+      </c>
+      <c r="E169" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="F169" s="7">
+      <c r="F169" s="8">
         <v>2395890</v>
       </c>
-      <c r="G169" s="5">
+      <c r="G169" s="9">
         <v>1</v>
       </c>
-      <c r="H169" t="s">
+      <c r="H169" s="6" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="21">
       <c r="A170" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="C170" s="6">
+      <c r="C170" s="7">
         <v>126.938876927</v>
       </c>
-      <c r="D170" s="6">
-        <v>37.551761552999999</v>
-      </c>
-      <c r="E170" t="s">
+      <c r="D170" s="7">
+        <v>37.551761553</v>
+      </c>
+      <c r="E170" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="F170" s="7">
+      <c r="F170" s="8">
         <v>7999996</v>
       </c>
-      <c r="G170" s="5">
+      <c r="G170" s="9">
         <v>1</v>
       </c>
-      <c r="H170" t="s">
+      <c r="H170" s="6" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="21">
       <c r="A171" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="C171" s="6">
+      <c r="C171" s="7">
         <v>126.991043156</v>
       </c>
-      <c r="D171" s="6">
-        <v>37.588195245000001</v>
-      </c>
-      <c r="E171" t="s">
+      <c r="D171" s="7">
+        <v>37.588195245</v>
+      </c>
+      <c r="E171" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="F171" s="7">
+      <c r="F171" s="8">
         <v>8448562</v>
       </c>
-      <c r="G171" s="5">
+      <c r="G171" s="9">
         <v>1</v>
       </c>
-      <c r="H171" t="s">
+      <c r="H171" s="6" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="21">
       <c r="A172" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="C172" s="6">
-        <v>127.04366309300001</v>
-      </c>
-      <c r="D172" s="6">
-        <v>37.560316288999999</v>
-      </c>
-      <c r="E172" t="s">
+      <c r="C172" s="7">
+        <v>127.043663093</v>
+      </c>
+      <c r="D172" s="7">
+        <v>37.560316289</v>
+      </c>
+      <c r="E172" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="F172" s="7">
+      <c r="F172" s="8">
         <v>8556877</v>
       </c>
-      <c r="G172" s="5">
+      <c r="G172" s="9">
         <v>1</v>
       </c>
-      <c r="H172" t="s">
+      <c r="H172" s="6" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="21">
       <c r="A173" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="C173" s="6">
-        <v>126.80334672799999</v>
-      </c>
-      <c r="D173" s="6">
-        <v>35.010573411000003</v>
-      </c>
-      <c r="E173" t="s">
+      <c r="C173" s="7">
+        <v>126.803346728</v>
+      </c>
+      <c r="D173" s="7">
+        <v>35.010573411</v>
+      </c>
+      <c r="E173" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="F173" s="7">
+      <c r="F173" s="8">
         <v>9000000</v>
       </c>
-      <c r="G173" s="5">
+      <c r="G173" s="9">
         <v>1</v>
       </c>
-      <c r="H173" t="s">
+      <c r="H173" s="6" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="21">
       <c r="A174" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="C174" s="6">
+      <c r="C174" s="7">
         <v>126.801333829</v>
       </c>
-      <c r="D174" s="6">
-        <v>35.016554196999998</v>
-      </c>
-      <c r="E174" t="s">
+      <c r="D174" s="7">
+        <v>35.016554197</v>
+      </c>
+      <c r="E174" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="F174" s="7">
+      <c r="F174" s="8">
         <v>9000000</v>
       </c>
-      <c r="G174" s="5">
+      <c r="G174" s="9">
         <v>1</v>
       </c>
-      <c r="H174" t="s">
+      <c r="H174" s="6" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="21">
       <c r="A175" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="C175" s="6">
-        <v>126.84016123000001</v>
-      </c>
-      <c r="D175" s="6">
+      <c r="C175" s="7">
+        <v>126.84016123</v>
+      </c>
+      <c r="D175" s="7">
         <v>35.228161811</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E175" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="F175" s="7">
+      <c r="F175" s="8">
         <v>2060000</v>
       </c>
-      <c r="G175" s="5">
+      <c r="G175" s="9">
         <v>1</v>
       </c>
-      <c r="H175" t="s">
+      <c r="H175" s="6" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="21">
       <c r="A176" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="C176" s="6">
-        <v>128.45502099999999</v>
-      </c>
-      <c r="D176" s="6">
+      <c r="C176" s="7">
+        <v>128.455021</v>
+      </c>
+      <c r="D176" s="7">
         <v>35.7056477</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E176" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="F176" s="7">
+      <c r="F176" s="8">
         <v>7280000</v>
       </c>
-      <c r="G176" s="5">
+      <c r="G176" s="9">
         <v>1</v>
       </c>
-      <c r="H176" t="s">
+      <c r="H176" s="6" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="21">
       <c r="A177" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="C177" s="6">
-        <v>129.18761767699999</v>
-      </c>
-      <c r="D177" s="6">
-        <v>35.577308856999998</v>
-      </c>
-      <c r="E177" t="s">
+      <c r="C177" s="7">
+        <v>129.187617677</v>
+      </c>
+      <c r="D177" s="7">
+        <v>35.577308857</v>
+      </c>
+      <c r="E177" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="F177" s="7">
+      <c r="F177" s="8">
         <v>6211367</v>
       </c>
-      <c r="G177" s="5">
+      <c r="G177" s="9">
         <v>1</v>
       </c>
-      <c r="H177" t="s">
+      <c r="H177" s="6" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="21">
       <c r="A178" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="C178" s="6">
+      <c r="C178" s="7">
         <v>127.026253001</v>
       </c>
-      <c r="D178" s="6">
+      <c r="D178" s="7">
         <v>37.58270572</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E178" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="F178" s="7">
+      <c r="F178" s="8">
         <v>8335434</v>
       </c>
-      <c r="G178" s="5">
+      <c r="G178" s="9">
         <v>0</v>
       </c>
-      <c r="H178" s="8" t="s">
+      <c r="H178" s="10" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="21">
       <c r="A179" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="C179" s="6">
+      <c r="C179" s="7">
         <v>126.942954363</v>
       </c>
-      <c r="D179" s="6">
-        <v>37.567012208999998</v>
-      </c>
-      <c r="E179" t="s">
+      <c r="D179" s="7">
+        <v>37.567012209</v>
+      </c>
+      <c r="E179" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="F179" s="7">
+      <c r="F179" s="8">
         <v>9203802</v>
       </c>
-      <c r="G179" s="5">
+      <c r="G179" s="9">
         <v>0</v>
       </c>
-      <c r="H179" t="s">
+      <c r="H179" s="6" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="21">
       <c r="A180" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="C180" s="6">
+      <c r="C180" s="7">
         <v>127.360129812</v>
       </c>
-      <c r="D180" s="6">
-        <v>36.374874044999999</v>
-      </c>
-      <c r="E180" t="s">
+      <c r="D180" s="7">
+        <v>36.374874045</v>
+      </c>
+      <c r="E180" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="F180" s="7">
+      <c r="F180" s="8">
         <v>6866000</v>
       </c>
-      <c r="G180" s="5">
+      <c r="G180" s="9">
         <v>0</v>
       </c>
-      <c r="H180" t="s">
+      <c r="H180" s="6" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="21">
       <c r="A181" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="C181" s="6">
+      <c r="C181" s="7">
         <v>129.321071695</v>
       </c>
-      <c r="D181" s="6">
-        <v>36.015285796000001</v>
-      </c>
-      <c r="E181" t="s">
+      <c r="D181" s="7">
+        <v>36.015285796</v>
+      </c>
+      <c r="E181" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="F181" s="7">
+      <c r="F181" s="8">
         <v>5613500</v>
       </c>
-      <c r="G181" s="5">
+      <c r="G181" s="9">
         <v>0</v>
       </c>
-      <c r="H181" t="s">
+      <c r="H181" s="6" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="21">
       <c r="A182" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="C182" s="6">
+      <c r="C182" s="7">
         <v>126.951881566</v>
       </c>
-      <c r="D182" s="6">
+      <c r="D182" s="7">
         <v>37.451362431</v>
       </c>
-      <c r="E182" t="s">
+      <c r="E182" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="F182" s="7">
+      <c r="F182" s="8">
         <v>6011720</v>
       </c>
-      <c r="G182" s="5">
+      <c r="G182" s="9">
         <v>0</v>
       </c>
-      <c r="H182" t="s">
+      <c r="H182" s="6" t="s">
         <v>688</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>